--- a/ams/cases/ieee14/ieee14_rted.xlsx
+++ b/ams/cases/ieee14/ieee14_rted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jwang\work\ams\ams\cases\ieee14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550993E4-72A9-4D5D-9E59-200BA1B3CA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19C53A-27B6-7347-98BA-864F93B15FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36480" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,15 @@
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GCost" sheetId="8" r:id="rId8"/>
     <sheet name="RCost" sheetId="9" r:id="rId9"/>
+    <sheet name="Zone" sheetId="10" r:id="rId10"/>
+    <sheet name="AGCR" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="256">
   <si>
     <t>uid</t>
   </si>
@@ -763,10 +765,6 @@
   </si>
   <si>
     <t>rate_a</t>
-  </si>
-  <si>
-    <t>cr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RCOST_1</t>
@@ -783,6 +781,24 @@
   </si>
   <si>
     <t>RCOST_5</t>
+  </si>
+  <si>
+    <t>cru</t>
+  </si>
+  <si>
+    <t>crd</t>
+  </si>
+  <si>
+    <t>ZONE1</t>
+  </si>
+  <si>
+    <t>ZONE2</t>
+  </si>
+  <si>
+    <t>du</t>
+  </si>
+  <si>
+    <t>dd</t>
   </si>
 </sst>
 </file>
@@ -793,13 +809,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -825,8 +841,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,12 +1188,12 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1237,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1256,13 +1275,13 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1300,13 +1319,13 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1344,13 +1363,13 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1388,13 +1407,13 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1432,13 +1451,13 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>15</v>
+        <v>252</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1476,13 +1495,13 @@
         <v>21</v>
       </c>
       <c r="M7" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1520,13 +1539,13 @@
         <v>21</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1564,13 +1583,13 @@
         <v>21</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1608,13 +1627,13 @@
         <v>21</v>
       </c>
       <c r="M10" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1652,13 +1671,13 @@
         <v>21</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1696,13 +1715,13 @@
         <v>21</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1740,13 +1759,13 @@
         <v>21</v>
       </c>
       <c r="M13" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1784,13 +1803,13 @@
         <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1828,7 +1847,7 @@
         <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="N15" t="s">
         <v>21</v>
@@ -1839,8 +1858,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N15" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A8:L15 A2:L2 N2 A3:L3 N3 A4:L6 N4:N6 A7:L7 N7 N8:N15" numberStoredAsText="1"/>
   </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D304DCD5-B58C-2F40-B69E-C9870B13ADFC}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC1EB84-6F53-6A4C-A2DF-7A3636DD1DD1}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1850,9 +2001,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1911,7 +2062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1967,7 +2118,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2023,7 +2174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2079,7 +2230,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2150,9 +2301,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2214,7 +2365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2288,9 +2439,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2325,7 +2476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2360,7 +2511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2395,7 +2546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2430,7 +2581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2465,7 +2616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2500,7 +2651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2535,7 +2686,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2570,7 +2721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2605,7 +2756,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2640,7 +2791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2675,7 +2826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2727,9 +2878,9 @@
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2957,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2874,7 +3025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +3093,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3010,7 +3161,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3078,7 +3229,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3146,7 +3297,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3214,7 +3365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3282,7 +3433,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3350,7 +3501,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3418,7 +3569,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3486,7 +3637,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3554,7 +3705,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3622,7 +3773,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -3690,7 +3841,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -3758,7 +3909,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3826,7 +3977,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -3894,7 +4045,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -3962,7 +4113,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -4030,7 +4181,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -4098,7 +4249,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -4181,9 +4332,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4215,7 +4366,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4247,7 +4398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4292,11 +4443,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="A1:D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4310,7 +4463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4324,7 +4477,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4355,9 +4508,9 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +4539,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4415,7 +4568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4444,7 +4597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4473,7 +4626,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4502,7 +4655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4542,15 +4695,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B97D1-6F67-409E-B307-E3878FB294FD}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4561,15 +4714,18 @@
         <v>228</v>
       </c>
       <c r="D1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>246</v>
       </c>
       <c r="C2" t="s">
         <v>104</v>
@@ -4577,13 +4733,16 @@
       <c r="D2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
         <v>85</v>
@@ -4591,13 +4750,16 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C4" t="s">
         <v>95</v>
@@ -4605,13 +4767,16 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
         <v>98</v>
@@ -4619,18 +4784,24 @@
       <c r="D5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" t="s">
         <v>102</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ams/cases/ieee14/ieee14_rted.xlsx
+++ b/ams/cases/ieee14/ieee14_rted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B19C53A-27B6-7347-98BA-864F93B15FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D6403D-E9D3-9243-8192-10D163C8879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36480" yWindow="1540" windowWidth="34560" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="258">
   <si>
     <t>uid</t>
   </si>
@@ -799,6 +799,12 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>AGCR1</t>
+  </si>
+  <si>
+    <t>AGCR2</t>
   </si>
 </sst>
 </file>
@@ -1187,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
@@ -1922,15 +1928,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC1EB84-6F53-6A4C-A2DF-7A3636DD1DD1}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1949,19 +1955,22 @@
       <c r="F1" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="E2" s="1">
         <v>0.05</v>
@@ -1969,25 +1978,31 @@
       <c r="F2" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E3" s="1">
         <v>0.05</v>
       </c>
       <c r="F3" s="1">
         <v>0.05</v>
+      </c>
+      <c r="G3" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/ams/cases/ieee14/ieee14_rted.xlsx
+++ b/ams/cases/ieee14/ieee14_rted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jwang\work\ams\ams\cases\ieee14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D6403D-E9D3-9243-8192-10D163C8879C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A9BE4-3CE4-46CE-BF32-4F1F277CA046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="1540" windowWidth="34560" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,9 @@
     <sheet name="Shunt" sheetId="6" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GCost" sheetId="8" r:id="rId8"/>
-    <sheet name="RCost" sheetId="9" r:id="rId9"/>
-    <sheet name="Zone" sheetId="10" r:id="rId10"/>
-    <sheet name="AGCR" sheetId="11" r:id="rId11"/>
+    <sheet name="Zone" sheetId="10" r:id="rId9"/>
+    <sheet name="SFR" sheetId="11" r:id="rId10"/>
+    <sheet name="SFRCost" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -815,13 +815,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1193,13 +1193,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1870,63 +1870,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D304DCD5-B58C-2F40-B69E-C9870B13ADFC}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC1EB84-6F53-6A4C-A2DF-7A3636DD1DD1}">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -1934,9 +1877,9 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1982,7 +1925,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2006,6 +1949,125 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B97D1-6F67-409E-B307-E3878FB294FD}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2016,9 +2078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2077,7 +2139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2133,7 +2195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2189,7 +2251,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2245,7 +2307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2316,9 +2378,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2380,7 +2442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2454,9 +2516,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2491,7 +2553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2526,7 +2588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2561,7 +2623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2596,7 +2658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2631,7 +2693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2666,7 +2728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2701,7 +2763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2736,7 +2798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +2868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2841,7 +2903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2893,9 +2955,9 @@
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2972,7 +3034,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3040,7 +3102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3108,7 +3170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3176,7 +3238,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3244,7 +3306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3312,7 +3374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3380,7 +3442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3448,7 +3510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3516,7 +3578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3584,7 +3646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3652,7 +3714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3720,7 +3782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3788,7 +3850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -3856,7 +3918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -3924,7 +3986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -3992,7 +4054,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -4060,7 +4122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -4128,7 +4190,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -4196,7 +4258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -4264,7 +4326,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -4347,9 +4409,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4381,7 +4443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4413,7 +4475,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4462,9 +4524,9 @@
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4478,7 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4492,7 +4554,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4523,9 +4585,9 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4554,7 +4616,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4583,7 +4645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4612,7 +4674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4641,7 +4703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4670,7 +4732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4709,16 +4771,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B97D1-6F67-409E-B307-E3878FB294FD}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D304DCD5-B58C-2F40-B69E-C9870B13ADFC}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4726,102 +4788,43 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ams/cases/ieee14/ieee14_rted.xlsx
+++ b/ams/cases/ieee14/ieee14_rted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jwang\work\ams\ams\cases\ieee14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259A9BE4-3CE4-46CE-BF32-4F1F277CA046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01FC84-6D58-C943-AF4C-442538B15BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Shunt" sheetId="6" r:id="rId6"/>
     <sheet name="Area" sheetId="7" r:id="rId7"/>
     <sheet name="GCost" sheetId="8" r:id="rId8"/>
-    <sheet name="Zone" sheetId="10" r:id="rId9"/>
+    <sheet name="Region" sheetId="10" r:id="rId9"/>
     <sheet name="SFR" sheetId="11" r:id="rId10"/>
     <sheet name="SFRCost" sheetId="9" r:id="rId11"/>
   </sheets>
@@ -815,13 +815,13 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1197,9 +1197,9 @@
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1507,7 +1507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1877,9 +1877,9 @@
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1958,13 +1958,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B97D1-6F67-409E-B307-E3878FB294FD}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2078,9 +2078,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2378,9 +2378,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2516,9 +2516,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2955,9 +2955,9 @@
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3034,7 +3034,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3850,7 +3850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -3986,7 +3986,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>70</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>206</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>210</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>217</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -4409,9 +4409,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4524,9 +4524,9 @@
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4585,9 +4585,9 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4774,13 +4774,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D304DCD5-B58C-2F40-B69E-C9870B13ADFC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>

--- a/ams/cases/ieee14/ieee14_rted.xlsx
+++ b/ams/cases/ieee14/ieee14_rted.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B01FC84-6D58-C943-AF4C-442538B15BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
     <sheet name="SFR" sheetId="11" r:id="rId10"/>
     <sheet name="SFRCost" sheetId="9" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -95,6 +89,9 @@
     <t>1.03</t>
   </si>
   <si>
+    <t>ZONE1</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
@@ -158,6 +155,9 @@
     <t>-0.109997631</t>
   </si>
   <si>
+    <t>ZONE2</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -497,6 +497,9 @@
     <t>phi</t>
   </si>
   <si>
+    <t>rate_a</t>
+  </si>
+  <si>
     <t>Line_1</t>
   </si>
   <si>
@@ -722,10 +725,10 @@
     <t>type</t>
   </si>
   <si>
-    <t>startup</t>
-  </si>
-  <si>
-    <t>shutdown</t>
+    <t>csu</t>
+  </si>
+  <si>
+    <t>csd</t>
   </si>
   <si>
     <t>c2</t>
@@ -764,11 +767,25 @@
     <t>GCOST_5</t>
   </si>
   <si>
-    <t>rate_a</t>
+    <t>du</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>AGCR1</t>
+  </si>
+  <si>
+    <t>AGCR2</t>
+  </si>
+  <si>
+    <t>cru</t>
+  </si>
+  <si>
+    <t>crd</t>
   </si>
   <si>
     <t>RCOST_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>RCOST_2</t>
@@ -781,61 +798,373 @@
   </si>
   <si>
     <t>RCOST_5</t>
-  </si>
-  <si>
-    <t>cru</t>
-  </si>
-  <si>
-    <t>crd</t>
-  </si>
-  <si>
-    <t>ZONE1</t>
-  </si>
-  <si>
-    <t>ZONE2</t>
-  </si>
-  <si>
-    <t>du</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>AGCR1</t>
-  </si>
-  <si>
-    <t>AGCR2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -843,9 +1172,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -853,17 +1424,61 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1185,21 +1800,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1243,7 +1858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1281,24 +1896,24 @@
         <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1310,10 +1925,10 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1325,24 +1940,24 @@
         <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1354,10 +1969,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -1369,24 +1984,24 @@
         <v>15</v>
       </c>
       <c r="M4" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -1398,10 +2013,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
@@ -1413,24 +2028,24 @@
         <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -1442,10 +2057,10 @@
         <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
         <v>14</v>
@@ -1457,27 +2072,27 @@
         <v>15</v>
       </c>
       <c r="M6" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1486,42 +2101,42 @@
         <v>19</v>
       </c>
       <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
         <v>40</v>
-      </c>
-      <c r="I7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M7" t="s">
-        <v>253</v>
-      </c>
-      <c r="N7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1530,39 +2145,39 @@
         <v>19</v>
       </c>
       <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" t="s">
-        <v>253</v>
-      </c>
-      <c r="N8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
@@ -1574,42 +2189,42 @@
         <v>19</v>
       </c>
       <c r="H9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>48</v>
       </c>
-      <c r="I9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M9" t="s">
-        <v>253</v>
-      </c>
-      <c r="N9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
@@ -1618,42 +2233,42 @@
         <v>19</v>
       </c>
       <c r="H10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
         <v>52</v>
       </c>
-      <c r="I10" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" t="s">
-        <v>253</v>
-      </c>
-      <c r="N10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
@@ -1662,42 +2277,42 @@
         <v>19</v>
       </c>
       <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="I11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" t="s">
-        <v>253</v>
-      </c>
-      <c r="N11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1706,42 +2321,42 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
         <v>60</v>
       </c>
-      <c r="I12" t="s">
-        <v>61</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s">
-        <v>14</v>
-      </c>
-      <c r="L12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" t="s">
-        <v>253</v>
-      </c>
-      <c r="N12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
@@ -1750,42 +2365,42 @@
         <v>19</v>
       </c>
       <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
         <v>64</v>
       </c>
-      <c r="I13" t="s">
-        <v>65</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" t="s">
-        <v>253</v>
-      </c>
-      <c r="N13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>62</v>
-      </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1794,42 +2409,42 @@
         <v>19</v>
       </c>
       <c r="H14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="I14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M14" t="s">
-        <v>253</v>
-      </c>
-      <c r="N14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1838,10 +2453,10 @@
         <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s">
         <v>14</v>
@@ -1850,36 +2465,37 @@
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N1 A8:L15 A2:L2 N2 A3:L3 N3 A4:L6 N4:N6 A7:L7 N7 N8:N15" numberStoredAsText="1"/>
+    <ignoredError sqref="N8:N15 N7 A7:L7 N4:N6 A4:L6 N3 A3:L3 N2 A2:L2 A8:L15 A1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC1EB84-6F53-6A4C-A2DF-7A3636DD1DD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1893,27 +2509,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F1" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E2" s="1">
         <v>0.05</v>
@@ -1922,21 +2538,21 @@
         <v>0.05</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E3" s="1">
         <v>0.05</v>
@@ -1945,26 +2561,27 @@
         <v>0.05</v>
       </c>
       <c r="G3" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B97D1-6F67-409E-B307-E3878FB294FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1972,93 +2589,93 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
@@ -2067,20 +2684,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2094,34 +2714,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -2133,239 +2753,239 @@
         <v>6</v>
       </c>
       <c r="R1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
         <v>90</v>
       </c>
-      <c r="M2" t="s">
-        <v>88</v>
-      </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
         <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
       </c>
-      <c r="K3" t="s">
-        <v>89</v>
-      </c>
-      <c r="L3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" t="s">
-        <v>97</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="Q3" t="s">
-        <v>93</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" t="s">
-        <v>90</v>
-      </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O4" t="s">
         <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
         <v>14</v>
       </c>
       <c r="S4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
         <v>20</v>
       </c>
       <c r="P5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R5" t="s">
         <v>14</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:S5" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -2373,14 +2993,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2394,34 +3017,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O1" t="s">
         <v>7</v>
@@ -2433,30 +3056,30 @@
         <v>6</v>
       </c>
       <c r="R1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="S1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="T1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -2465,45 +3088,45 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
         <v>15</v>
       </c>
       <c r="N2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R2" t="s">
         <v>14</v>
       </c>
       <c r="S2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="T2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:T2" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -2511,14 +3134,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2532,16 +3158,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
@@ -2553,394 +3179,394 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" t="s">
         <v>115</v>
       </c>
-      <c r="I3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J3" t="s">
-        <v>113</v>
-      </c>
       <c r="K3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J6" t="s">
+        <v>115</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" t="s">
         <v>122</v>
       </c>
-      <c r="I6" t="s">
-        <v>112</v>
-      </c>
-      <c r="J6" t="s">
-        <v>113</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I8" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" t="s">
         <v>130</v>
       </c>
-      <c r="H9" t="s">
-        <v>131</v>
-      </c>
-      <c r="I9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>133</v>
-      </c>
-      <c r="H10" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="J10" t="s">
-        <v>113</v>
-      </c>
-      <c r="K10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" t="s">
-        <v>128</v>
-      </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:K12" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -2948,16 +3574,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2971,55 +3598,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="J1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="R1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="U1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -3031,33 +3658,33 @@
         <v>10</v>
       </c>
       <c r="Y1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -3066,13 +3693,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -3102,30 +3729,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -3134,13 +3761,13 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -3170,30 +3797,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -3202,13 +3829,13 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
@@ -3238,30 +3865,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -3270,13 +3897,13 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -3306,30 +3933,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -3338,13 +3965,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
@@ -3374,30 +4001,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -3406,13 +4033,13 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -3442,30 +4069,30 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -3474,10 +4101,10 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M8" t="s">
         <v>14</v>
@@ -3510,42 +4137,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M9" t="s">
         <v>14</v>
@@ -3578,42 +4205,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M10" t="s">
         <v>14</v>
@@ -3646,42 +4273,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -3714,42 +4341,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
         <v>14</v>
       </c>
       <c r="L12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M12" t="s">
         <v>14</v>
@@ -3782,42 +4409,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K13" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="L13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M13" t="s">
         <v>14</v>
@@ -3850,42 +4477,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M14" t="s">
         <v>14</v>
@@ -3918,42 +4545,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M15" t="s">
         <v>14</v>
@@ -3986,42 +4613,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="L16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M16" t="s">
         <v>14</v>
@@ -4054,42 +4681,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L17" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M17" t="s">
         <v>14</v>
@@ -4122,42 +4749,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
         <v>14</v>
       </c>
       <c r="L18" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M18" t="s">
         <v>14</v>
@@ -4181,7 +4808,7 @@
         <v>15</v>
       </c>
       <c r="T18" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -4190,66 +4817,66 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" t="s">
         <v>14</v>
       </c>
       <c r="L19" t="s">
+        <v>219</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" t="s">
+        <v>14</v>
+      </c>
+      <c r="P19" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" t="s">
+        <v>14</v>
+      </c>
+      <c r="S19" t="s">
+        <v>15</v>
+      </c>
+      <c r="T19" t="s">
         <v>216</v>
-      </c>
-      <c r="M19" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" t="s">
-        <v>14</v>
-      </c>
-      <c r="P19" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" t="s">
-        <v>14</v>
-      </c>
-      <c r="S19" t="s">
-        <v>15</v>
-      </c>
-      <c r="T19" t="s">
-        <v>213</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -4258,33 +4885,33 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s">
         <v>17</v>
@@ -4293,7 +4920,7 @@
         <v>14</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s">
         <v>14</v>
@@ -4317,7 +4944,7 @@
         <v>15</v>
       </c>
       <c r="T20" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="U20" t="s">
         <v>14</v>
@@ -4326,42 +4953,42 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21" t="s">
         <v>14</v>
       </c>
       <c r="L21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s">
         <v>14</v>
@@ -4385,7 +5012,7 @@
         <v>15</v>
       </c>
       <c r="T21" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="U21" t="s">
         <v>14</v>
@@ -4395,8 +5022,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:X21" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4404,14 +5031,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4425,91 +5055,91 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4517,16 +5147,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4540,7 +5171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4551,26 +5182,26 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4578,16 +5209,17 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4595,192 +5227,193 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
+        <v>240</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
         <v>104</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H2" t="s">
-        <v>237</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H4" t="s">
-        <v>241</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>242</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>240</v>
-      </c>
-      <c r="H5" t="s">
-        <v>241</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>243</v>
       </c>
-      <c r="C6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>240</v>
-      </c>
       <c r="H6" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I6" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D1 G1:I1 A2:I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D304DCD5-B58C-2F40-B69E-C9870B13ADFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4794,37 +5427,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>253</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ams/cases/ieee14/ieee14_rted.xlsx
+++ b/ams/cases/ieee14/ieee14_rted.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/ams/ams/cases/ieee14/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D57FFB-7E1D-244C-B3C9-DB1B1CA1BF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Bus" sheetId="1" r:id="rId1"/>
-    <sheet name="PV" sheetId="2" r:id="rId2"/>
-    <sheet name="Slack" sheetId="3" r:id="rId3"/>
-    <sheet name="PQ" sheetId="4" r:id="rId4"/>
-    <sheet name="Line" sheetId="5" r:id="rId5"/>
-    <sheet name="Shunt" sheetId="6" r:id="rId6"/>
-    <sheet name="Area" sheetId="7" r:id="rId7"/>
-    <sheet name="GCost" sheetId="8" r:id="rId8"/>
-    <sheet name="Region" sheetId="10" r:id="rId9"/>
-    <sheet name="SFR" sheetId="11" r:id="rId10"/>
-    <sheet name="SFRCost" sheetId="9" r:id="rId11"/>
+    <sheet name="Summary" sheetId="12" r:id="rId1"/>
+    <sheet name="Bus" sheetId="1" r:id="rId2"/>
+    <sheet name="PV" sheetId="2" r:id="rId3"/>
+    <sheet name="Slack" sheetId="3" r:id="rId4"/>
+    <sheet name="PQ" sheetId="4" r:id="rId5"/>
+    <sheet name="Line" sheetId="5" r:id="rId6"/>
+    <sheet name="Shunt" sheetId="6" r:id="rId7"/>
+    <sheet name="Area" sheetId="7" r:id="rId8"/>
+    <sheet name="GCost" sheetId="8" r:id="rId9"/>
+    <sheet name="Region" sheetId="10" r:id="rId10"/>
+    <sheet name="SFR" sheetId="11" r:id="rId11"/>
+    <sheet name="SFRCost" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="266">
   <si>
     <t>uid</t>
   </si>
@@ -798,373 +805,69 @@
   </si>
   <si>
     <t>RCOST_5</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>comment2</t>
+  </si>
+  <si>
+    <t>comment3</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>IEEE 14-bus test case</t>
+  </si>
+  <si>
+    <t>with Gcost and SFRCost</t>
+  </si>
+  <si>
+    <t>for RTED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1174,311 +877,76 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1800,21 +1268,331 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C580AE-BCDB-6447-87F2-91D4F169EC59}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1902,7 +1680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1946,7 +1724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1990,7 +1768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2034,7 +1812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2078,7 +1856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -2122,7 +1900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -2166,7 +1944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -2210,7 +1988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2254,7 +2032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2298,7 +2076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -2342,7 +2120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -2386,7 +2164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -2430,7 +2208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2477,25 +2255,21 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="N8:N15 N7 A7:L7 N4:N6 A4:L6 N3 A3:L3 N2 A2:L2 A8:L15 A1:N1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2509,501 +2283,292 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>248</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.05</v>
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>95</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+      <c r="O4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>255</v>
-      </c>
-      <c r="C4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:S5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="4"/>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" t="s">
-        <v>91</v>
-      </c>
-      <c r="L2" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P3" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>95</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M4" t="s">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-      <c r="M5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" t="s">
-        <v>102</v>
-      </c>
-      <c r="O5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P5" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>95</v>
-      </c>
-      <c r="R5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:S5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3065,7 +2630,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3126,25 +2691,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:T2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3179,7 +2740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3214,7 +2775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3249,7 +2810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3284,7 +2845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3319,7 +2880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3354,7 +2915,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3389,7 +2950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3424,7 +2985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -3459,7 +3020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -3494,7 +3055,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -3529,7 +3090,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -3566,25 +3127,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:K12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3661,7 +3220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3729,7 +3288,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -3797,7 +3356,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3865,7 +3424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3933,7 +3492,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4001,7 +3560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4069,7 +3628,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4137,7 +3696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -4205,7 +3764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -4273,7 +3832,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -4341,7 +3900,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -4409,7 +3968,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>60</v>
       </c>
@@ -4477,7 +4036,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -4545,7 +4104,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -4613,7 +4172,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -4681,7 +4240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>209</v>
       </c>
@@ -4749,7 +4308,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -4817,7 +4376,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>217</v>
       </c>
@@ -4885,7 +4444,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -4953,7 +4512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>223</v>
       </c>
@@ -5023,25 +4582,21 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:X21" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5073,7 +4628,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5105,7 +4660,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5139,25 +4694,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:J3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="A1:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5171,7 +4724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5185,7 +4738,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5201,25 +4754,23 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5248,7 +4799,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5277,7 +4828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5306,7 +4857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5335,7 +4886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5364,7 +4915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5395,69 +4946,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <ignoredErrors>
     <ignoredError sqref="A1:D1 G1:I1 A2:I6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>